--- a/Ejercicio 5/Tiempos.xlsx
+++ b/Ejercicio 5/Tiempos.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bfa53a309f3daf52/Universidad/2020 q1/Sistemas Distribuidos/proye1/Ejercicio 5/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{1B6CBB10-643C-461A-82D8-F1C0583A4711}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4FCD6024-4EFB-4BD7-A122-2FB1B4C23A13}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="14580" yWindow="2355" windowWidth="21600" windowHeight="11385" xr2:uid="{F618B8A4-4411-4078-85D7-0267333F74C7}"/>
+    <workbookView xWindow="14580" yWindow="2355" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -63,7 +57,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -150,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -158,6 +152,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -218,7 +213,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -270,7 +265,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -464,21 +459,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC387B21-7DB5-4BB4-973E-61B4D78C9F39}">
-  <dimension ref="B2:H24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="8" width="13.5703125" customWidth="1"/>
   </cols>
@@ -524,7 +519,9 @@
       <c r="C4" s="1">
         <v>68</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2">
+        <v>31</v>
+      </c>
       <c r="E4" s="4"/>
       <c r="F4" s="1">
         <v>1</v>
@@ -532,7 +529,9 @@
       <c r="G4" s="1">
         <v>86</v>
       </c>
-      <c r="H4" s="5"/>
+      <c r="H4" s="5">
+        <v>83</v>
+      </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
@@ -541,7 +540,9 @@
       <c r="C5" s="1">
         <v>68</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2">
+        <v>66</v>
+      </c>
       <c r="E5" s="4"/>
       <c r="F5" s="1">
         <v>2</v>
@@ -549,7 +550,9 @@
       <c r="G5" s="1">
         <v>72</v>
       </c>
-      <c r="H5" s="5"/>
+      <c r="H5" s="5">
+        <v>84</v>
+      </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
@@ -558,7 +561,9 @@
       <c r="C6" s="1">
         <v>66</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>19</v>
+      </c>
       <c r="E6" s="4"/>
       <c r="F6" s="1">
         <v>3</v>
@@ -566,7 +571,9 @@
       <c r="G6" s="1">
         <v>64</v>
       </c>
-      <c r="H6" s="5"/>
+      <c r="H6" s="5">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
@@ -575,7 +582,9 @@
       <c r="C7" s="1">
         <v>54</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>17</v>
+      </c>
       <c r="E7" s="4"/>
       <c r="F7" s="1">
         <v>4</v>
@@ -583,7 +592,9 @@
       <c r="G7" s="1">
         <v>71</v>
       </c>
-      <c r="H7" s="5"/>
+      <c r="H7" s="5">
+        <v>22</v>
+      </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
@@ -592,7 +603,9 @@
       <c r="C8" s="1">
         <v>94</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>18</v>
+      </c>
       <c r="E8" s="4"/>
       <c r="F8" s="1">
         <v>5</v>
@@ -600,7 +613,9 @@
       <c r="G8" s="1">
         <v>67</v>
       </c>
-      <c r="H8" s="5"/>
+      <c r="H8" s="5">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D9" s="6"/>
@@ -644,14 +659,18 @@
       <c r="C12" s="1">
         <v>61</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1">
+        <v>17</v>
+      </c>
       <c r="F12" s="1">
         <v>1</v>
       </c>
       <c r="G12" s="1">
         <v>61</v>
       </c>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1">
+        <v>79</v>
+      </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
@@ -660,14 +679,18 @@
       <c r="C13" s="1">
         <v>63</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1">
+        <v>19</v>
+      </c>
       <c r="F13" s="1">
         <v>2</v>
       </c>
       <c r="G13" s="1">
         <v>62</v>
       </c>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1">
+        <v>18</v>
+      </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
@@ -676,14 +699,18 @@
       <c r="C14" s="1">
         <v>59</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1">
+        <v>44</v>
+      </c>
       <c r="F14" s="1">
         <v>3</v>
       </c>
       <c r="G14" s="1">
         <v>67</v>
       </c>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1">
+        <v>16</v>
+      </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
@@ -692,14 +719,18 @@
       <c r="C15" s="1">
         <v>91</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1">
+        <v>44</v>
+      </c>
       <c r="F15" s="1">
         <v>4</v>
       </c>
       <c r="G15" s="1">
         <v>60</v>
       </c>
-      <c r="H15" s="1"/>
+      <c r="H15" s="1">
+        <v>18</v>
+      </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
@@ -708,14 +739,18 @@
       <c r="C16" s="1">
         <v>63</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="1">
+        <v>51</v>
+      </c>
       <c r="F16" s="1">
         <v>5</v>
       </c>
       <c r="G16" s="1">
         <v>60</v>
       </c>
-      <c r="H16" s="1"/>
+      <c r="H16" s="1">
+        <v>16</v>
+      </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
@@ -756,14 +791,18 @@
       <c r="C20" s="1">
         <v>111</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1">
+        <v>17</v>
+      </c>
       <c r="F20" s="1">
         <v>1</v>
       </c>
       <c r="G20" s="1">
         <v>62</v>
       </c>
-      <c r="H20" s="1"/>
+      <c r="H20" s="1">
+        <v>19</v>
+      </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
@@ -772,14 +811,18 @@
       <c r="C21" s="1">
         <v>63</v>
       </c>
-      <c r="D21" s="1"/>
+      <c r="D21" s="1">
+        <v>76</v>
+      </c>
       <c r="F21" s="1">
         <v>2</v>
       </c>
       <c r="G21" s="1">
         <v>64</v>
       </c>
-      <c r="H21" s="1"/>
+      <c r="H21" s="1">
+        <v>16</v>
+      </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
@@ -788,14 +831,18 @@
       <c r="C22" s="1">
         <v>64</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="1">
+        <v>78</v>
+      </c>
       <c r="F22" s="1">
         <v>3</v>
       </c>
       <c r="G22" s="1">
         <v>59</v>
       </c>
-      <c r="H22" s="1"/>
+      <c r="H22" s="1">
+        <v>47</v>
+      </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
@@ -804,14 +851,18 @@
       <c r="C23" s="1">
         <v>65</v>
       </c>
-      <c r="D23" s="1"/>
+      <c r="D23" s="1">
+        <v>22</v>
+      </c>
       <c r="F23" s="1">
         <v>4</v>
       </c>
       <c r="G23" s="1">
         <v>60</v>
       </c>
-      <c r="H23" s="1"/>
+      <c r="H23" s="1">
+        <v>418</v>
+      </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
@@ -820,14 +871,21 @@
       <c r="C24" s="1">
         <v>64</v>
       </c>
-      <c r="D24" s="1"/>
+      <c r="D24" s="1">
+        <v>16</v>
+      </c>
       <c r="F24" s="1">
         <v>5</v>
       </c>
       <c r="G24" s="1">
         <v>59</v>
       </c>
-      <c r="H24" s="1"/>
+      <c r="H24" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D25" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
